--- a/distance_stats_2010_to_2019.xlsx
+++ b/distance_stats_2010_to_2019.xlsx
@@ -154,12 +154,12 @@
     <t>Alex Noren</t>
   </si>
   <si>
+    <t>Carlos Ortiz</t>
+  </si>
+  <si>
     <t>Harris English</t>
   </si>
   <si>
-    <t>Carlos Ortiz</t>
-  </si>
-  <si>
     <t>Daniel Berger</t>
   </si>
   <si>
@@ -367,12 +367,12 @@
     <t>Julián Etulain</t>
   </si>
   <si>
+    <t>Billy Horschel</t>
+  </si>
+  <si>
     <t>Kevin Streelman</t>
   </si>
   <si>
-    <t>Billy Horschel</t>
-  </si>
-  <si>
     <t>Bill Haas</t>
   </si>
   <si>
@@ -397,18 +397,18 @@
     <t>Tom Hoge</t>
   </si>
   <si>
+    <t>Anirban Lahiri</t>
+  </si>
+  <si>
+    <t>José de Jesús Rodríguez</t>
+  </si>
+  <si>
+    <t>Fabián Gómez</t>
+  </si>
+  <si>
     <t>Kelly Kraft</t>
   </si>
   <si>
-    <t>Anirban Lahiri</t>
-  </si>
-  <si>
-    <t>José de Jesús Rodríguez</t>
-  </si>
-  <si>
-    <t>Fabián Gómez</t>
-  </si>
-  <si>
     <t>Jason Dufner</t>
   </si>
   <si>
@@ -973,10 +973,10 @@
     <t>Mark Anderson</t>
   </si>
   <si>
+    <t>Daniel Chopra</t>
+  </si>
+  <si>
     <t>Edward Loar</t>
-  </si>
-  <si>
-    <t>Daniel Chopra</t>
   </si>
   <si>
     <t>Chris Couch</t>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>318</v>
+        <v>158</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>202</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="B58">
         <v>58</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="B60">
         <v>60</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>367</v>
       </c>
       <c r="B68">
         <v>68</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>367</v>
+        <v>227</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70">
         <v>70</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="B80">
         <v>80</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>298</v>
+        <v>371</v>
       </c>
       <c r="B86">
         <v>86</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="B102">
         <v>102</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="B105">
         <v>105</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="B107">
         <v>105</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="B128">
         <v>128</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="B131">
         <v>131</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114">
         <v>114</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143">
         <v>142</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61">
         <v>61</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B72">
         <v>72</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84">
         <v>84</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B101">
         <v>101</v>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B59">
         <v>59</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B62">
         <v>59</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72">
         <v>72</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B82">
         <v>82</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B104">
         <v>104</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B105">
         <v>105</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="B110">
         <v>108</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B127">
         <v>127</v>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -7682,7 +7682,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -7690,7 +7690,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -7802,7 +7802,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="B62">
         <v>62</v>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>72</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B78">
         <v>78</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="B82">
         <v>82</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B84">
         <v>82</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B95">
         <v>93</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="B96">
         <v>93</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c r="B119">
         <v>119</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="B142">
         <v>141</v>
@@ -8450,7 +8450,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B143">
         <v>141</v>
@@ -8671,7 +8671,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B97">
         <v>97</v>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -9932,7 +9932,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -9948,7 +9948,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -9956,7 +9956,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -10132,7 +10132,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c r="B64">
         <v>64</v>
@@ -10140,7 +10140,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -10188,7 +10188,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="B71">
         <v>71</v>
@@ -10196,7 +10196,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -10204,7 +10204,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <v>73</v>
@@ -10212,7 +10212,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B75">
         <v>75</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="B83">
         <v>83</v>
@@ -10292,7 +10292,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -10372,7 +10372,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="B94">
         <v>94</v>
@@ -10380,7 +10380,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -10476,7 +10476,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="B107">
         <v>107</v>
@@ -10484,7 +10484,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -10620,7 +10620,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="B126">
         <v>124</v>
@@ -10937,7 +10937,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -10961,7 +10961,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -11041,7 +11041,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -11049,7 +11049,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -11225,7 +11225,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>319</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B63">
         <v>63</v>
@@ -11289,7 +11289,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B64">
         <v>64</v>
@@ -11297,7 +11297,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -11457,7 +11457,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>301</v>
       </c>
       <c r="B85">
         <v>85</v>
@@ -11465,7 +11465,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>301</v>
+        <v>69</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -11473,7 +11473,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -11489,7 +11489,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -11569,7 +11569,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="B99">
         <v>99</v>
@@ -11577,7 +11577,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -11865,7 +11865,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B136">
         <v>136</v>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="B138">
         <v>138</v>
@@ -11889,7 +11889,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -12142,7 +12142,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>336</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -12686,7 +12686,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B94">
         <v>94</v>
@@ -12822,7 +12822,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>111</v>
@@ -12862,7 +12862,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B116">
         <v>116</v>
